--- a/results/mp/tinybert/corona/confidence/168/stop-words-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>anchor score</t>
   </si>
@@ -61,9 +61,6 @@
     <t>sc</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -73,100 +70,103 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>free</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>online</t>
   </si>
   <si>
     <t>new</t>
@@ -175,12 +175,6 @@
     <t>shopping</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
@@ -188,6 +182,9 @@
   </si>
   <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>consumer</t>
   </si>
   <si>
     <t>supermarket</t>
@@ -562,10 +559,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -644,16 +641,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -665,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -673,13 +670,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,19 +688,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -715,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -723,13 +720,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6986301369863014</v>
+        <v>0.708904109589041</v>
       </c>
       <c r="C5">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D5">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,19 +738,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9565217391304348</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -765,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3866666666666667</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.9322033898305084</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,13 +820,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3837209302325582</v>
+        <v>0.3546511627906977</v>
       </c>
       <c r="C7">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="D7">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -841,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7">
         <v>0.8660714285714286</v>
@@ -873,13 +870,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.348993288590604</v>
+        <v>0.3355704697986577</v>
       </c>
       <c r="C8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,19 +888,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8536585365853658</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +920,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.291005291005291</v>
+        <v>0.3068783068783069</v>
       </c>
       <c r="C9">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D9">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8448275862068966</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,37 +970,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2777777777777778</v>
+        <v>0.1706349206349206</v>
       </c>
       <c r="C10">
+        <v>43</v>
+      </c>
+      <c r="D10">
+        <v>43</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>209</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D10">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>65</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K10">
-        <v>0.84375</v>
+        <v>0.8203125</v>
       </c>
       <c r="L10">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M10">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1015,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1023,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1825396825396825</v>
+        <v>0.1260053619302949</v>
       </c>
       <c r="C11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,69 +1038,45 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>206</v>
+        <v>326</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="L11">
+        <v>95</v>
+      </c>
+      <c r="M11">
+        <v>95</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K11">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L11">
-        <v>30</v>
-      </c>
-      <c r="M11">
-        <v>30</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.1129032258064516</v>
-      </c>
-      <c r="C12">
-        <v>42</v>
-      </c>
-      <c r="D12">
-        <v>43</v>
-      </c>
-      <c r="E12">
-        <v>0.02</v>
-      </c>
-      <c r="F12">
-        <v>0.98</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>330</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="K12">
-        <v>0.8085106382978723</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1115,21 +1088,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13">
-        <v>0.8083333333333333</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L13">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="M13">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1141,21 +1114,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7843137254901961</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1167,21 +1140,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7619047619047619</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="M15">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1193,21 +1166,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.7464788732394366</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L16">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1219,12 +1192,12 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K17">
         <v>0.7358490566037735</v>
@@ -1250,16 +1223,16 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.7222222222222222</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1271,21 +1244,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.71875</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L19">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1297,21 +1270,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.6702127659574468</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L20">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M20">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1323,12 +1296,12 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K21">
         <v>0.6666666666666666</v>
@@ -1354,16 +1327,16 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.64</v>
+        <v>0.6292428198433421</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>241</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>241</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1375,21 +1348,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.6135770234986945</v>
+        <v>0.6</v>
       </c>
       <c r="L23">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1401,21 +1374,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>148</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.6046511627906976</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1427,21 +1400,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.5794117647058824</v>
       </c>
       <c r="L25">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="M25">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1453,21 +1426,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>18</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.5676470588235294</v>
+        <v>0.54</v>
       </c>
       <c r="L26">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1479,21 +1452,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>147</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.5280898876404494</v>
+        <v>0.5288135593220339</v>
       </c>
       <c r="L27">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="M27">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1505,21 +1478,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>42</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.5254237288135594</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L28">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="M28">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1531,21 +1504,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>140</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.5205479452054794</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L29">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M29">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1557,21 +1530,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.502092050209205</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L30">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="M30">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1583,21 +1556,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>119</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.4923076923076923</v>
+        <v>0.4853556485355648</v>
       </c>
       <c r="L31">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="M31">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1609,21 +1582,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>33</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.4615384615384616</v>
+        <v>0.46875</v>
       </c>
       <c r="L32">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1635,21 +1608,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.421875</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1661,21 +1634,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.4142857142857143</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L34">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M34">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1687,47 +1660,47 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K35">
+        <v>0.1220095693779904</v>
+      </c>
+      <c r="L35">
         <v>51</v>
       </c>
-      <c r="K35">
-        <v>0.1355140186915888</v>
-      </c>
-      <c r="L35">
-        <v>29</v>
-      </c>
       <c r="M35">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="N35">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>185</v>
+        <v>367</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>0.1153846153846154</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="L36">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="M36">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1739,21 +1712,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>368</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>0.1124401913875598</v>
+        <v>0.1033653846153846</v>
       </c>
       <c r="L37">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M37">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1765,21 +1738,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K38">
-        <v>0.0764525993883792</v>
+        <v>0.07046979865771812</v>
       </c>
       <c r="L38">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="M38">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1791,21 +1764,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>302</v>
+        <v>831</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K39">
+        <v>0.06104328523862375</v>
+      </c>
+      <c r="L39">
         <v>55</v>
       </c>
-      <c r="K39">
-        <v>0.07606263982102908</v>
-      </c>
-      <c r="L39">
-        <v>68</v>
-      </c>
       <c r="M39">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1817,137 +1790,137 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>826</v>
+        <v>846</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K40">
-        <v>0.05216426193118757</v>
+        <v>0.04307116104868914</v>
       </c>
       <c r="L40">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="M40">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>854</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K41">
-        <v>0.03785046728971963</v>
+        <v>0.04</v>
       </c>
       <c r="L41">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="M41">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="N41">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>2059</v>
+        <v>624</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K42">
-        <v>0.03575547866205306</v>
+        <v>0.03579676674364896</v>
       </c>
       <c r="L42">
         <v>31</v>
       </c>
       <c r="M42">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K43">
-        <v>0.02065182316876412</v>
+        <v>0.02288845905867182</v>
       </c>
       <c r="L43">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M43">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="N43">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="O43">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>3035</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K44">
-        <v>0.01034158570980884</v>
+        <v>0.009093759799310128</v>
       </c>
       <c r="L44">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M44">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N44">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="O44">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>3158</v>
+        <v>3160</v>
       </c>
     </row>
   </sheetData>
